--- a/StructureDefinition-ext-R5-PractitionerRole.contact.xlsx
+++ b/StructureDefinition-ext-R5-PractitionerRole.contact.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `PractitionerRole.contact` 0..* `ExtendedContactDetail`
 Following are the generation technical comments:
-Element `PractitionerRole.contact` is mapped to FHIR R4 structure `PractitionerRole`, but has no target element specified.</t>
+Element `PractitionerRole.contact` is will have a context of PractitionerRole based on following the parent source element upwards and mapping to `PractitionerRole`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:PractitionerRole</t>
   </si>
   <si>
     <t>ID</t>

--- a/StructureDefinition-ext-R5-PractitionerRole.contact.xlsx
+++ b/StructureDefinition-ext-R5-PractitionerRole.contact.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `PractitionerRole.contact` 0..* `ExtendedContactDetail`
 Following are the generation technical comments:
-Element `PractitionerRole.contact` is will have a context of PractitionerRole based on following the parent source element upwards and mapping to `PractitionerRole`.</t>
+Element `PractitionerRole.contact` has a context of PractitionerRole based on following the parent source element upwards and mapping to `PractitionerRole`.</t>
   </si>
   <si>
     <t>Copyright</t>

--- a/StructureDefinition-ext-R5-PractitionerRole.contact.xlsx
+++ b/StructureDefinition-ext-R5-PractitionerRole.contact.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="193">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -450,15 +450,6 @@
 </t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>The purpose for which an extended contact detail should be used.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-contactentity-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:name</t>
   </si>
   <si>
@@ -585,7 +576,7 @@
     <t>Extension.extension:organization.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -974,8 +965,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.28125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2418,13 +2409,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2462,13 +2453,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2493,16 +2484,16 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2571,7 +2562,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>104</v>
@@ -2674,7 +2665,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>106</v>
@@ -2779,7 +2770,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>112</v>
@@ -2822,7 +2813,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2884,7 +2875,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>121</v>
@@ -2910,16 +2901,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -2989,13 +2980,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3020,14 +3011,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3096,7 +3087,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>104</v>
@@ -3199,7 +3190,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>106</v>
@@ -3304,7 +3295,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>112</v>
@@ -3347,7 +3338,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3409,7 +3400,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>121</v>
@@ -3435,13 +3426,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3512,13 +3503,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3543,16 +3534,16 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3621,7 +3612,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>104</v>
@@ -3724,7 +3715,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>106</v>
@@ -3829,7 +3820,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>112</v>
@@ -3872,7 +3863,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3934,7 +3925,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>121</v>
@@ -3960,16 +3951,16 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4039,13 +4030,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4070,14 +4061,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4146,7 +4137,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>104</v>
@@ -4249,7 +4240,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>106</v>
@@ -4354,7 +4345,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>112</v>
@@ -4397,7 +4388,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4459,7 +4450,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>121</v>
@@ -4485,13 +4476,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4562,13 +4553,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4593,16 +4584,16 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="O35" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4671,7 +4662,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>104</v>
@@ -4774,7 +4765,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>106</v>
@@ -4879,7 +4870,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>112</v>
@@ -4922,7 +4913,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -4984,7 +4975,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>121</v>
@@ -5010,16 +5001,16 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5220,7 +5211,7 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>122</v>

--- a/StructureDefinition-ext-R5-PractitionerRole.contact.xlsx
+++ b/StructureDefinition-ext-R5-PractitionerRole.contact.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="196">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -450,6 +450,15 @@
 </t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>The purpose for which an extended contact detail should be used.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:name</t>
   </si>
   <si>
@@ -576,7 +585,7 @@
     <t>Extension.extension:organization.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -965,8 +974,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2409,13 +2418,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2453,13 +2462,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2484,16 +2493,16 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2562,7 +2571,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>104</v>
@@ -2665,7 +2674,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>106</v>
@@ -2770,7 +2779,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>112</v>
@@ -2813,7 +2822,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2875,7 +2884,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>121</v>
@@ -2901,16 +2910,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -2980,13 +2989,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3011,14 +3020,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3087,7 +3096,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>104</v>
@@ -3190,7 +3199,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>106</v>
@@ -3295,7 +3304,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>112</v>
@@ -3338,7 +3347,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3400,7 +3409,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>121</v>
@@ -3426,13 +3435,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3503,13 +3512,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3534,16 +3543,16 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3612,7 +3621,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>104</v>
@@ -3715,7 +3724,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>106</v>
@@ -3820,7 +3829,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>112</v>
@@ -3863,7 +3872,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3925,7 +3934,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>121</v>
@@ -3951,16 +3960,16 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4030,13 +4039,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4061,14 +4070,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4137,7 +4146,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>104</v>
@@ -4240,7 +4249,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>106</v>
@@ -4345,7 +4354,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>112</v>
@@ -4388,7 +4397,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4450,7 +4459,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>121</v>
@@ -4476,13 +4485,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4553,13 +4562,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4584,16 +4593,16 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4662,7 +4671,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>104</v>
@@ -4765,7 +4774,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>106</v>
@@ -4870,7 +4879,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>112</v>
@@ -4913,7 +4922,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -4975,7 +4984,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>121</v>
@@ -5001,16 +5010,16 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5211,7 +5220,7 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>122</v>
